--- a/data/out/people.xlsx
+++ b/data/out/people.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,8 +424,6 @@
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -444,26 +442,16 @@
           <t>city</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>9mice</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,60 +459,38 @@
           <t>SPB</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>alice@example.com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bob</t>
+          <t>Kai</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Moscow</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>+7-999-123-45-67</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Charlie</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Novosibirsk</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>charlie@test.ru</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>+7-999-765-43-21</t>
+          <t>Monte Carlo</t>
         </is>
       </c>
     </row>
